--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3271,7 +3271,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3281,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,10 +3364,10 @@
         <v>807</v>
       </c>
       <c r="K2">
-        <v>2121.8989000000001</v>
+        <v>3121.8989000000001</v>
       </c>
       <c r="L2">
-        <v>2343.98</v>
+        <v>3543.98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
